--- a/design_overview.xlsx
+++ b/design_overview.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HoangPham\Documents\GitHub\27410-group-assigment-group-13-glucosamine-in-e-coli\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE67528D-DC37-4B9E-9384-ACADFE09EE39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5E9A6B-C4C1-44F8-A0FF-25F22A64579B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,20 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
-  <si>
-    <t>OG</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t xml:space="preserve">1 gene intergrations (ExRe2). </t>
   </si>
   <si>
-    <t xml:space="preserve">2 gene intergrations (ExRe2). </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Media: 30 g/L Glucose. 2 gene intergrations (ExRe2). </t>
-  </si>
-  <si>
     <t>Design description</t>
   </si>
   <si>
@@ -62,9 +53,6 @@
     <t>Media: 30 g/L Glucose, 10 g/L Ribose. 2 gene intergrations (ExRe2 + ExRe1). KOs: nagABE, manXYZ, ptsG</t>
   </si>
   <si>
-    <t>Media: 1600 g/L Glucose, 10 g/L Ribose. 2 gene intergrations (ExRe2 + ExRe1). KOs: nagABE, manXYZ, ptsG</t>
-  </si>
-  <si>
     <t>Max flux</t>
   </si>
   <si>
@@ -75,12 +63,27 @@
   </si>
   <si>
     <t>Ribose Yield</t>
+  </si>
+  <si>
+    <t>Original iML1515 model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media: 30 g/L Glucose. 2 gene intergrations (ExRe2 + ExRe1). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 gene intergrations (ExRe2 + ExRe1). </t>
+  </si>
+  <si>
+    <t>Media: 1700 g/L Glucose, 10 g/L Ribose. 2 gene intergrations (ExRe2 + ExRe1). KOs: nagABE, manXYZ, ptsG</t>
+  </si>
+  <si>
+    <t>Media: 30 g/L Glucose, 1000 g/L Ribose. 2 gene intergrations (ExRe2 + ExRe1). KOs: nagABE, manXYZ, ptsG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -426,11 +429,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,24 +446,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -472,194 +475,195 @@
         <f>B2/10</f>
         <v>0</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <f>B2/10</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>2.92</v>
+        <v>2.99</v>
       </c>
       <c r="C3">
         <v>0.45</v>
       </c>
       <c r="D3" s="1">
         <f>B3/10</f>
-        <v>0.29199999999999998</v>
-      </c>
-      <c r="E3">
+        <v>0.29900000000000004</v>
+      </c>
+      <c r="E3" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>3.33</v>
+        <v>3.45</v>
       </c>
       <c r="C4">
         <v>0.45</v>
       </c>
       <c r="D4" s="1">
         <f>B4/10</f>
-        <v>0.33300000000000002</v>
-      </c>
-      <c r="E4">
+        <v>0.34500000000000003</v>
+      </c>
+      <c r="E4" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B5">
-        <v>17.39</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="C5">
         <v>0.45</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D3:D10" si="0">B5/30</f>
-        <v>0.57966666666666666</v>
-      </c>
-      <c r="E5">
+        <f t="shared" ref="D5:D10" si="0">B5/30</f>
+        <v>0.59800000000000009</v>
+      </c>
+      <c r="E5" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>23.01</v>
+        <v>23.69</v>
       </c>
       <c r="C6">
         <v>0.45</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ref="E3:E12" si="1">B6/10</f>
-        <v>2.3010000000000002</v>
+        <v>0.78966666666666674</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:E10" si="1">B6/10</f>
+        <v>2.3690000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>22.8</v>
+        <v>23.56</v>
       </c>
       <c r="C7">
         <v>0.45</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>0.76</v>
-      </c>
-      <c r="E7">
+        <v>0.78533333333333333</v>
+      </c>
+      <c r="E7" s="1">
         <f t="shared" si="1"/>
-        <v>2.2800000000000002</v>
+        <v>2.3559999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>23.01</v>
+        <v>23.69</v>
       </c>
       <c r="C8">
         <v>0.45</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>0.76700000000000002</v>
-      </c>
-      <c r="E8">
+        <v>0.78966666666666674</v>
+      </c>
+      <c r="E8" s="1">
         <f t="shared" si="1"/>
-        <v>2.3010000000000002</v>
+        <v>2.3690000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>26.23</v>
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>26.9</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>0.8743333333333333</v>
-      </c>
-      <c r="E9">
+        <v>0.89666666666666661</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>2.6230000000000002</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>12.66</v>
+        <v>4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>0.42199999999999999</v>
-      </c>
-      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>1.266</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>536.66999999999996</v>
+        <v>667.19</v>
       </c>
       <c r="C11">
         <v>0.45</v>
       </c>
       <c r="D11" s="1">
-        <f>B11/1600</f>
-        <v>0.33541874999999999</v>
-      </c>
-      <c r="E11">
+        <f>B11/1700</f>
+        <v>0.39246470588235299</v>
+      </c>
+      <c r="E11" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>268.83</v>
+        <v>478.92</v>
       </c>
       <c r="C12">
-        <v>14.7</v>
+        <v>0.45</v>
       </c>
       <c r="D12" s="1">
-        <f>B12/1600</f>
-        <v>0.16801874999999999</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <f>B12/30</f>
+        <v>15.964</v>
+      </c>
+      <c r="E12" s="1">
+        <f>B12/1000</f>
+        <v>0.47892000000000001</v>
       </c>
     </row>
   </sheetData>
